--- a/Class_VII/Result_Final.xlsx
+++ b/Class_VII/Result_Final.xlsx
@@ -1149,7 +1149,7 @@
         <v>7</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AJ2">
         <v>25</v>
@@ -1281,7 +1281,7 @@
         <v>31.6</v>
       </c>
       <c r="CA2">
-        <v>27.8</v>
+        <v>29.2</v>
       </c>
       <c r="CB2">
         <v>34</v>
@@ -1347,7 +1347,7 @@
         <v>115</v>
       </c>
       <c r="CW2">
-        <v>269.2</v>
+        <v>270.6</v>
       </c>
       <c r="CX2" t="s">
         <v>115</v>
@@ -1356,7 +1356,7 @@
         <v>800</v>
       </c>
       <c r="CZ2">
-        <v>33.65</v>
+        <v>33.825</v>
       </c>
       <c r="DA2">
         <v>5</v>
@@ -1783,7 +1783,7 @@
         <v>7</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AJ4">
         <v>25</v>
@@ -1915,7 +1915,7 @@
         <v>31.4</v>
       </c>
       <c r="CA4">
-        <v>33.6</v>
+        <v>35</v>
       </c>
       <c r="CB4">
         <v>30</v>
@@ -1981,7 +1981,7 @@
         <v>115</v>
       </c>
       <c r="CW4">
-        <v>355.8</v>
+        <v>357.2</v>
       </c>
       <c r="CX4" t="s">
         <v>115</v>
@@ -1990,7 +1990,7 @@
         <v>800</v>
       </c>
       <c r="CZ4">
-        <v>44.475</v>
+        <v>44.65</v>
       </c>
       <c r="DA4">
         <v>4</v>
@@ -2417,7 +2417,7 @@
         <v>7</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AJ6">
         <v>25</v>
@@ -2549,7 +2549,7 @@
         <v>43.4</v>
       </c>
       <c r="CA6">
-        <v>34.4</v>
+        <v>36.2</v>
       </c>
       <c r="CB6">
         <v>53</v>
@@ -2615,7 +2615,7 @@
         <v>115</v>
       </c>
       <c r="CW6">
-        <v>387.8</v>
+        <v>389.6</v>
       </c>
       <c r="CX6" t="s">
         <v>115</v>
@@ -2624,7 +2624,7 @@
         <v>800</v>
       </c>
       <c r="CZ6">
-        <v>48.475</v>
+        <v>48.7</v>
       </c>
       <c r="DA6">
         <v>2</v>
@@ -2734,7 +2734,7 @@
         <v>7</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ7">
         <v>25</v>
@@ -2866,7 +2866,7 @@
         <v>41.4</v>
       </c>
       <c r="CA7">
-        <v>25.6</v>
+        <v>26.8</v>
       </c>
       <c r="CB7">
         <v>30.2</v>
@@ -2932,7 +2932,7 @@
         <v>115</v>
       </c>
       <c r="CW7">
-        <v>368.8</v>
+        <v>369.9999999999999</v>
       </c>
       <c r="CX7" t="s">
         <v>115</v>
@@ -2941,7 +2941,7 @@
         <v>800</v>
       </c>
       <c r="CZ7">
-        <v>46.1</v>
+        <v>46.24999999999999</v>
       </c>
       <c r="DA7">
         <v>3</v>
@@ -3051,7 +3051,7 @@
         <v>7</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AJ8">
         <v>25</v>
@@ -3183,7 +3183,7 @@
         <v>41</v>
       </c>
       <c r="CA8">
-        <v>66.40000000000001</v>
+        <v>71</v>
       </c>
       <c r="CB8">
         <v>47.8</v>
@@ -3249,7 +3249,7 @@
         <v>115</v>
       </c>
       <c r="CW8">
-        <v>526.8000000000001</v>
+        <v>531.4000000000001</v>
       </c>
       <c r="CX8" t="s">
         <v>115</v>
@@ -3258,7 +3258,7 @@
         <v>800</v>
       </c>
       <c r="CZ8">
-        <v>65.85000000000001</v>
+        <v>66.42500000000001</v>
       </c>
       <c r="DA8">
         <v>1</v>
@@ -3368,7 +3368,7 @@
         <v>7</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AJ9">
         <v>25</v>
@@ -3500,7 +3500,7 @@
         <v>13.2</v>
       </c>
       <c r="CA9">
-        <v>25.6</v>
+        <v>26.6</v>
       </c>
       <c r="CB9">
         <v>13.6</v>
@@ -3566,7 +3566,7 @@
         <v>116</v>
       </c>
       <c r="CW9">
-        <v>199.8</v>
+        <v>200.8</v>
       </c>
       <c r="CX9" t="s">
         <v>116</v>
@@ -3575,7 +3575,7 @@
         <v>800</v>
       </c>
       <c r="CZ9">
-        <v>24.975</v>
+        <v>25.1</v>
       </c>
       <c r="DA9">
         <v>7</v>
